--- a/JP (Exclude Game)/Dialog/dialog.xlsx
+++ b/JP (Exclude Game)/Dialog/dialog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId3"/>
@@ -983,7 +983,7 @@
 音耐性が十分にあれば朦朧を防ぐことができる。
 幻惑耐性が十分にあれば狂気を防ぐことができる。
 杖を祝福するのはいいアイデアだが、祝福されたポーションや巻物よりは若干効果が劣るそうだ。
-濡れている間は炎属性のダメージはほとんど受けない。しかし雷属性のダメージは増加する。
+濡れている間は火炎属性のダメージはほとんど受けない。しかし電撃属性のダメージは増加する。
 短期間に吐きすぎると拒食症になるぞ。病気になったら飲み物で空腹を癒すしかない。
 祝福された能力復活や精神復活のポーションは、肉体や精神強化する。
 強敵には呪われた能力復活や精神復活のポーションを投げつけろ。
@@ -1922,9 +1922,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>290880</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1934,7 +1934,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49670280" cy="129600"/>
+          <a:ext cx="49669920" cy="129240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2930,12 +2930,12 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3345,7 +3345,7 @@
   </sheetPr>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>

--- a/JP (Exclude Game)/Dialog/dialog.xlsx
+++ b/JP (Exclude Game)/Dialog/dialog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="413">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1239,6 +1239,138 @@
 I hear that a lot of the seediest and creepiest people head to Derphy.</t>
   </si>
   <si>
+    <t xml:space="preserve">foxtown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私たちはたくさんの米を作って、人間に売ってい{る}。
+キズアミ様はこの村の守護神{だ}。
+この村の川は、ラーナの近くの山から流れてくるん{だよ}。
+私たちの祖先は、この丘に棚田を切り開いて稲作を始め{た}。
+村の者は皆、書道にたしなみが{ある}。
+書道に興味があれば、雑貨屋で書道道具を買える{よ}。
+もし田んぼのそばで金色の鬼火を見かけたら、すぐにキヌに知らせて{くれ}。あれは人を迷わせる邪悪な霊な{のだ}。
+この村では大根やネギのような野菜もたくさん育てて{いる}。
+キヌは米を育てるのが本当に上手{だ}。
+キズアミ様を信仰する者だけが、この村の霊的な力を感じ取れる{のだ}。
+ラーナへ向かう旅人は、山道に挑む前にこの村の宿で一休みするん{だよ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We produce far more rice than we need, so we sell the surplus to humans.
+Lord Kizuami is the patron deity of this village.
+The river that flows through this village begins in the mountains, near Larna.
+Our ancestors cut terraces into these foothills to grow rice on.
+It's important that everyone in the village knows how to write in the traditional way.
+If you're interested in calligraphy, the general store sells the tools.
+If you see any golden will-o'-wisps by the rice paddies, tell Kinu immediately. They're evil spirits that will lead you astray.
+This village also plant many vegetables like radishes and leeks.
+Kinu makes rice cultivation look so easy.
+Only those faithful to Lord Kizuami are able to perceive the village's spiritual energy.
+People traveling to Larna will sometimes rest in the village inn before ascending the mountain pass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foxtown_nefu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">村の外に出るのは怖い{よ}。人間たちは平気で耳や尻尾に触れてくるから{ね}。
+ホロメ様はこの村の皆を見守ってくださってい{る}。
+観光客が村の雰囲気を壊しているのが嫌{だな}。
+夜に一人で桜の木のそばにいると、金色の九尾の狐が見えると噂されてい{る}。
+この村の者は幼い頃から剣術を学んで{いる}。
+この村で売っている乳は最高な{のだ}！
+ミフは南から稲を運んできて、ここで酒を仕込む{のだ}。
+桜花酒は女神への良い供物{だ}。
+ミズナさんは本当に豊かな体をして{いる}。大きくて包容力があって最高{だ}！
+ミサキとミズナのおかげで、この村は安全で繁栄して{いる}。
+この村の空気は北地の中でも暖かく穏やか{だ}。神木は冬でも葉を落とさ{ない}。
+桜花酒はこの村の名物{だ}。
+滝の下で瞑想すると、体と心が邪悪から清められ{のだ}。
+ホロメ様を信仰する者だけが、この村の本当の美しさを目にすることができる{のだ}。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's scary to go out of the village. Humans will touch our ears and tails as they please.
+Lady Horome watches over everyone in this village.
+All the tourists are ruining our village's atmosphere.
+It's said that if you're alone by the cherry tree at night, you might see a golden nine-tailed fox.
+Everyone in this village is trained in swordsmanship from young.
+The milk sold in this village is the best!
+The mifu bring rice from the south all the way here to be brewed.
+Cherry blossom sake is a pleasing offering for both our gods.
+Mizuno has a really robust body, doesn't she? That's right... big and robust.
+Between Misaki and Mizuno's hard work, this village is safe and prosperous.
+Despite being this far north, the air in this village is warm and mild. Even the sacred tree doesn't shed its leaves in winter.
+Cherry blossom sake is our village's specialty.
+Meditating beneath the waterfall purifies both the body and mind of evil influences.
+Only those faithful to Lady Horome are able to see the village's true beauty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specwing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ここは街道から遠く離れているので、ほとんどの物資は空から届けられる{のだ}。
+スペクウィングには多くの冒険者が集まり、ネフィアに挑む前にパーティーを組んで{いる}。
+スペクウィングは、ノースティリスの荒野に向かう多くの冒険者にとって、最後の補給地点なん{だよ}。
+この周辺には危険なネフィアが多い{よ}。
+大使館から特別な許可がないと探索できないネフィアが近くにあるそう{だ}。
+この村はもともと妖精たちが住み着いた場所{だ}。
+冒険者たちが訪れるようになって、この村も大きくなった{よ}。
+木の上で続く終わりなき宴、それが私たちが冒険者からお金を巻き上げる方法な{のだ}。
+スペクウィングの創設者は青いナスの衣装を着た妖精だったらしい{よ}。
+妖精の魔法のおかげで、この木は人々が住んでいるにもかかわらず元気に育ってい{る}。
+私たちが木を世話し、木も私たちを守ってくれる{のだ}。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We're very far from the roads, so most goods arrive by air.
+Many adventurers gather in Specwing to form parties before venturing into nefia.
+Specwing is the last stop for supplies for many adventuring parties before entering the remote wilderness of North Tyris.
+Nefia in the surrounding region are more dangerous than usual.
+I've heard there's one peculior Nefia nearby where you need a special license from the Embassy to explore it.
+This village was originally settled by faries.
+Everything in this village was enlarged when adventurers started to visit.
+The never-ending revelry in the treetops is how we part adventurers from their money.
+It is said Specwing's founder was a fairy who dressed in a blue eggplant costume.
+Fairy magic allows the tree to grow and thrive despite having people living in it.
+We take care of it, and it takes care of us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">village_exile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#raceが何故この村に…？
+#raceが何をしに来た{のだ}？
+結界がこの村をモンスターや好奇心の目から守ってい{る}。
+時々、私たちは外の世界から研究材料を手に入れる必要が{ある}。
+私が大切に思っていた人々はとうに亡くなり、今では外の世界で私を覚えている者など誰もいない{のだ}。
+私たちは神々の禁忌を破り、大いなる父に仕える労働を課せられて{いる}。
+長老ビチェリンは、自分がどれだけの歳月を生きてきたのか、あまり話したがらないよう{だ}。
+もし君が灰のような味のしない食べ物を持ってきてくれるなら、皆が喜ぶ{だろう}。
+この村には食材が不足してい{る}。
+私たちが自然な死を迎えることは{ない}。
+私たちが解放される日は、大いなる父が我々の罪がすべて償われたと判断した時だけ{だ}。
+私たちのもつ知識は、外の世界に広まるには危険すぎるもの{だ}。
+大いなる父は常に私たちを見守って{いる}。
+大いなる父は私たちの償いを監督し、その運命から逃れることはでき{ない}。
+時が経つにつれ、物質的なことに私たちはあまり関心を持たなくなった{のだ}。
+#raceよ、君の前にいるのは千年以上生きた追放者{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A #race in this village...?
+What brings a #race to this village? 
+The barrier shields the village from monsters and curious eyes.
+Sometimes, we must acquire research materials from the outside world.
+Anyone I cared for passed ages ago. Now no one in the outside world remembers me...
+For our sins against the gods, we labor in service of our great father.
+Elder Bicerin doesn't talk much about how old he is.
+Everyone is hoping you'll bring food that doesn't taste like ashes.
+Tthis village is lacking in ingredients.
+None of us die natural deaths.
+Our release will only come when our great father deems our sins repaid in full.
+The knowledge we curate is too dangerous to be widespread.
+Our great father's eye is always upon us.
+Our great father oversees our penance, and there is no escape from our fates.
+As time passes, we grow less concerned with our material conditions...
+Yes #race, you're standing in front of an exile who has lived more than 1000 years.</t>
+  </si>
+  <si>
     <t xml:space="preserve">conery</t>
   </si>
   <si>
@@ -1679,6 +1811,227 @@
   </si>
   <si>
     <t xml:space="preserve">Here to spin the prize wheel, huh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miko_mifu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私たちは祝福でもあり、呪いでもあります。見方を変えれば、弱さもまた強さに変わるのです。
+命に死がなく、天に地獄がなく、出会いに別れがなく、喜びに悲しみがない世界など、存在しないのです。
+私は祝福の巫女として、毎年この村で封印の儀を導く役目を担っています。
+キズアミ様の祝福はすべての者に与えられます。その力は世界に干渉するものであり、信仰のない者にすら感じることができるでしょう。
+私たちが育てる稲は、豊かな霊力を宿し、封印の儀には欠かせないものです。
+ユフは歪んだ負の神であり、神々の間にある争いをすべて消し去り、理想の平和をイルヴァにもたらそうとしました。
+巫女を引き継ぐと決めた時、私はかつての名を捨て、「キヌ」と名乗りました。いつの日か、私の娘の一人も同じ道を歩むことでしょう。
+永遠の夏はなく、季節は巡り、やがて冬が訪れます。祝福も永遠には続かず、不幸もまた同様です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are both our blessings and curses. By changing our perspectives, we turn our weaknesses into strengths.
+There is no life without death, no heaven without hell, no meeting without parting, no joy without sorrow.
+As Maiden of Blessings, it's my duty to lead the village in the sealing rites every year.
+Lord Kizuami's blessings may be received by all. It is his way to meddle with the world, and even unbelievers may amuse him for a time.
+The rice we grow is blessed with an abundance of spiritual energy and is essential to the sealing rites.
+Yufu was a wicked negentropy god who sought to bring his delusion of peace to Ylva by eliminating all strife between the gods.
+When I rose to the position of shrine maiden, I set aside my old name and am now called "Kinu". Someday, one of my daughters will do the same.
+There is no eternal summer; the seasons turn and winter arrives. Blessings cannot last forever, but neither will misfortune.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miko_nefu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユフは、神々の戦争を操り、イルヴァを支配しようとした邪悪な負の神だった。
+私たちは神樹の広場で儀式の舞を捧げる。
+ホロメ様はすべての命を愛し、信仰のない者にさえ小さな祝福を与えるのよ。
+刃の巫女として、私は毎年、封印の儀式の剣舞を舞うの。
+桜の花びらは女神の涙のように散り、私たちの心に儚さを刻む。
+儀式用の刀剣は、女神への崇拝において重要な役割を果たすのよ。
+ホロメ様は子供を慈しみ、大きな家族を持つ者に祝福を授ける。ネフは決して数の多い種族ではないけど、大家族は大いに尊敬されるの。
+私の刀は代々の巫女から受け継がれてきたものだ。
+刃の巫女はそれぞれ、その刀に新たな伝説を刻むことを目指す。
+私たちの女神は、力と美は相反するものではないと教える。ネフの剣舞はその両方を体現しようとするものだ。
+ネフの村は神樹を守るために築かれた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yufu was a wicked negentropy god who sought to manipulate the divine wars and rule over Ylva unopposed.
+We hold ceremonial dances in the clearing before the sacred tree.
+Lady Horome loves all mortals, and even unbelievers may receive a small blessing.
+As Maiden of Blades, every year I perform a sword dance as part of the sealing rites.
+The cherry blossoms fall like our goddess' tears and touch our hearts with melancholy.
+Ceremonial swords play a central role in the worship rites of our goddess.
+Lady Horome delights in children, and she blesses those who have large families. We Nefu have never been a numerous people, and those who gain her favor this way are greatly respected.
+My katana has been passed down through generations of shrine maidens.
+Each Maiden of Blades seeks to add to its legacy.
+Our goddess teaches that strength and beauty are not at odds; Nefu sword dances seek to exemplify both.
+Nefu Village was founded to guard the sacred tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eureka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冒険者ですか？こんな場所まで来るとは、物好きですね。
+私は主にここの守護を任されています。大変な栄誉ではあるのですが...ときどき退屈ですね。
+イーヴァン様の教えは苛烈とされますが、元は定命者への深い愛情と期待から来るものでもあります。
+機械は嫌いです。血が出ないから。
+模擬戦でもどうですか？最近闘争が足りていなくて。
+ビリーさん、あの棘さえなければ...
+猫は本当にかわいい生き物ですね...
+戦場の硝煙が恋しいです。連れて行ってくれませんか？
+ここの景色は美しいのですが、暮らす分には不便ですね。時折、北にあるミフの里まで遊びに行くのがたまの楽しみです。
+ここに眠る負の神に挑戦するのであれば止めはしませんよ。イーヴァン様も喜びそうですし。
+エーテルは非常に興味深い物質ですね。良くも悪くも、今後の人類の行く末を左右しそうです。
+初対面の狐族をモフモフするのって失礼でしょうか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A traveler? What a rare occasion.
+I've been tasked to oversee this location by my god. It's a great honor, but well...can get boring at times.
+Lord Yevan's teachings may be considered drastic, but are rooted in his deep love and high expectations for mortals.
+I hate machinery. It doesn't bleed.
+Interested in sparring? I could use some practice.
+If only Billy didn't have those spikes...
+Cats...such cute animals.
+Ah, I miss the scent of the battlefield. Any chance you could take me to one?
+The scenery here is beautiful, but food is sparse. I like to occasionally stop by Mifu Village north of here for supplies.
+I won't stop you if you'd like to challenge the god sealed here. Lord Yevan would surely enjoy it.
+Ether is an interesting substance. It's sure to change the path of humanity, for better or worse.
+Do you think it's rude to fluffy stroke a random foxfolk?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merchant_inn_fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この首飾り？もちろん中身は米よ。私たちの村では小麦は育てていないから。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The charm about my neck? Of course it's filled with rice, we don't grow wheat in this village.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merchant_inn_fox2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この宿は元々巡礼者を迎えるために建てられたのですが、最近は観光客も増えてきました。
+いらっしゃいませ！ お食事にしますか？ それともお風呂？ それとも…？
+なぜ急に村が人気になったのかはわかりませんが、忙しいのは悪くないですね！
+観光客たちは、ミサキの警告を無視して聖樹に近づきすぎるので困ります。まったく、敬意が足りませんね。
+私たちだけなら自給自足もできるのですが、ミフ村から食料を送ってもらわなければ、観光客たちをまかないきれません。
+どうして人間は、私たちの耳や尻尾にあんなに興味を持つのでしょう？
+ミサキは神殿を守り、私は宿を切り盛りしています。これじゃあ、長老がすることはあまり残っていませんね！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This inn was originally built to house pilgrims, but the village has had many tourists of late.
+Welcome! Would you like a meal, a bath, or perhaps...?
+I don't know how the village suddenly became popular, but I'm more than happy to be this busy!
+The tourists keep on getting too close to the sacred tree despite Misaki's warnings. They simply have no respect!
+We can sustain ourselves, but I wouldn't be able to deal with all these tourists if Mifu Village wasn't sending us food from the south.
+Why are humans so fascinated by our ears and tails?
+Misaki minds the temple, while I run the inn. Between us, there's not much left for the elder to do!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_kiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なぜ私が作られたのか知ってる？ いいえ？ だと思った。
+ 家みたいな場所を夢に見るけど、どうやってそこへ戻ればいいか思い出せない。
+目が覚めたらこの武器を持っていた。なんて重いの。刺す？撃つ？両方やっちゃえ。
+「はーい！ みんなのアイドル、機械人形キリアちゃんキリ～！」…私にアイドルモジュールなんてあった？ いつ録音したんだっけ？
+機械のマニは虚無を聞ける者に囁くって聞いた。あの人なら、私がなぜ作られたか知っているかも。
+*zzt* また壊れた記憶…何をしにここへ来たんだっけ？
+*beep* ただいま定期メンテナンス中です。もう少しお待ちください。
+私が小さなゴーレムだって？ 馬鹿な。
+バグ？ グリッチ？ それは機能だよ。
+*じっと見つめる* ちっ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you know why I was made? No? Didn’t think so.
+I keep dreaming of a place that looks like home, but I can't remember how to get there.
+I woke up with this weapon. So cumbersome. Should I stab, or shoot?  I'll just do both.
+"Hai! It's everyone's idol, Machine Doll Kiria-chan, kiri～" ... Do I have an idol module? When did I record this?
+I heard Mani of Machine whispers to those who can hear the void. Maybe he knows why I was made.
+*zzt* Another corrupt memory... what was I doing here again?
+*beep* We are performing scheduled maintenance and will be back online shortly.
+Some people think I'm a tiny golem? Nonsense.
+Bugs? Glitches? Those are features.
+*stares* tch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_gaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空色のチューリップ？ 色々旅してきたけど見たことないよ。
+新しい奇妙な病気が流行ってるらしい……ツノでも生えないかな～。
+怒らせると変な呪いをかけてくる神がいるから気を付けようね。
+カジノのディーラーは絶対｢やってる｣……！ 
+卵の卵♪ 切り身の切り身♪ 切り身の卵♪
+上には上がいる。ざこよりざこもいる。#brother2はどっちかなぁ～？
+もう1本ツノ……いや刀を持ってたんだけど旅の途中で失くしちゃってねぇ。
+美味しいもの食べてる時がしゃーわせ♪
+牙姫ちゃん来たよ。もてなしてねすぐでいいよ。
+可愛くて強いのが牙姫ちゃんってワケ☆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A phantom azure tulip? I’ve traveled far and wide, but I’ve never seen one.
+There’s some new weird disease going around... I wonder if it’ll make me grow horns~
+There’s a god who curses people with weird spells when they get mad, so be careful.
+I’m telling you, the casino dealers are definitely cheating...! 
+Egg of an egg♪ Slice of a slice♪ Slice of an egg♪
+There’s always someone better. And someone worse than the worst. Which one are you, #brother2?
+I used to have another horn... no, another sword, but I lost it along the way.
+Eating something delicious is pure bliss♪
+Fang Princess is here. Treat her well, and quickly.
+Cute and strong, that’s what makes me Fang Princess☆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_mesherada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魂が再び絡み合い、私たちが約束を果たすその時を待っている…そうではないか？ 
+もしそなたが私の探し人なら…きっと運命が二人に囁くだろう。
+そなたには、時の彼方に失われたと思っていた安らぎを感じる。
+そなたの魂は懐かしい…まるで言葉が生まれるよりも前に、出会っていたかのようだ。
+この瞬間が永遠に続けばよいのに…そなたの温もりをもう少し感じていたい。
+そなたはただの優しい見知らぬ人なのか…それとも時を越えて追いかけてきた面影か…
+目の前に立つそなたの名前を、私はまだ呼ぶことができない。
+不思議だ…そなたの傍にいると、なぜか一番安らぐ。
+そなたも感じているか…？ 二人を繋ぐ糸が張り詰めているのを？
+いくつもの道を歩んでも…その先には必ずそなたがいるのだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder... are our souls once more intertwined, waiting for the moment when we shall fulfill our promise?
+If thou art the one I seek... surely fate shall whisper it to us both.
+There is something in thy presence—a peace I thought lost to time.
+Thy soul feels familiar, as though we met long before names were spoken.
+Would that this moment could linger, if only to feel thy warmth a while more.
+Art thou merely a kind stranger... or the echo I have chased through time?
+Thou standest before me, and yet I dare not name thee.
+Strange... I feel safest when thou art near.
+Dost thou feel it too? A thread pulled taut between us.
+So many paths... yet I always find thee at the end of mine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olderyoungersister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私がいつ生まれたのか気になるの#brother2？遠い遠い遥か昔の事だよ#brother2…
+ずっと#brother2を求めてこの世界を彷徨っていたの…そしたらいたのよ#brother2が！
+#brother2ずっと…一緒だよね…？ちょっと不安になっただけだよ#brother2。
+#brother2の為に戦いも家事もあらゆることはできるようになっておきたいの。
+神様は時に残酷だよね#brother2…
+私は#brother2のこと束縛しないよっ！本当だよっ！
+私の囀りには混沌の力が宿るみたい。
+私以外にもこの世界には#brother2の血の繋がらない妹達がいるんだって！
+雪プチちゃんをもふもふしたい！もふりたいよ#brother2！
+雪プチちゃんには色の違う子たちがいるんだよ#brother2。みんなお迎えできると嬉しいね#brother2。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder when I was born, #brother2? It was a long, long time ago, #brother2...
+I’ve been wandering this world all this time, searching for you, #brother2... and then I found you!
+We’ll be together forever, right, #brother2...? I just got a little scared, that’s all, #brother2.
+I want to be able to do everything for you, #brother2 – fighting, housework, everything.
+God can be so cruel sometimes, #brother2...
+I won’t ever tie you down, #brother2! I promise!
+It seems like there’s a power of chaos in my song.
+I heard there are other sisters in this world who aren’t blood-related to you, #brother2!
+I want to snuggle with snow putit-chan! I really do, #brother2!
+There are snow putit-chans with different colors, #brother2. It would be so nice if we could welcome them all, #brother2.</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +2143,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1823,6 +2176,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1836,6 +2193,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1922,9 +2283,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>288000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1934,7 +2295,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49669920" cy="129240"/>
+          <a:ext cx="49667400" cy="126720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2930,11 +3291,11 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
       <selection pane="bottomRight" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3196,14 +3557,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3325,6 +3686,54 @@
       </c>
       <c r="D13" s="3" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -3343,14 +3752,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3358,7 +3767,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="110.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="87.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="100.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,282 +3795,372 @@
     </row>
     <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>353</v>
+        <v>364</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>358</v>
+        <v>369</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>370</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>363</v>
+      <c r="A25" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>366</v>
+      <c r="A26" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>378</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>369</v>
+      <c r="A27" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>412</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/JP (Exclude Game)/Dialog/dialog.xlsx
+++ b/JP (Exclude Game)/Dialog/dialog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="419">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -475,7 +475,16 @@
     <t xml:space="preserve">犯罪者に売るものはない{よ}。</t>
   </si>
   <si>
-    <t xml:space="preserve">I don't have business with criminals.</t>
+    <t xml:space="preserve">I don't do business with criminals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_blackmarket_noaccess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{あはは}、君みたいなカタギの冒険者が私に何の用{だ}？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh, what business does a straight-laced adventurer like you have with me?</t>
   </si>
   <si>
     <t xml:space="preserve">guide</t>
@@ -1628,7 +1637,7 @@
   </si>
   <si>
     <t xml:space="preserve">Please stay away...Lord Efrond will be angry with me.
-The Forest of Vindale...I have never visited it. All the elea who live in Mysiria are "outsiders".
+The Forest of Vindale...I have never visited it. All the elea who live in Mysilia are "outsiders".
 Looking at the flowers like this makes me sleepy...</t>
   </si>
   <si>
@@ -1755,15 +1764,53 @@
 私は『探求者』…あるいは『異界渡り』とも呼ばれる男だ。この世のすべての知識を得るために人生を捧げている。見てのとおりの世捨て人さ。
 …しかし、よくぞまあ、こんな辺ぴな場所を見つけたものだな。
 …この城は私の大図書館だが、元来に図書館とは広く開かれた場所であるべきだ…私は君を歓迎しよう。
-この世のすべての知識は、誰もが手にする権利を持っているのだ。君も自由に過ごしたまえ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ah, a raven. Do you seek something?
+この世のすべての知識は、誰もが手にする権利を持っているのだ。君も自由に過ごしたまえ。
+この世界のどこかに、イルヴァ全ての歴史と真相が刻まれた秘宝があるらしい…。
+永遠の盟約…？　随分と古い話を知っているのだね。
+やあ、ワタリガラス。貸し出した本は大事に読んでいるかい？
+知識を後世に残すことは、知識を得た者の義務だよ。
+やあ、ワタリガラス。我が友スランを見かけなかったかい？
+…この兜かい？　美しい獣だろう。古い友なんだ。
+…顔を隠す理由？　10年戦争以降、エレアは肩身が狭くてね…。
+…友は皆、一足先に旅立ってしまう…。
+どうも、妹犬の館とやらの幻覚を追う狂人がいるらしい。
+また戦争が起こるのかな。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Ah, a raven. Do you seek something?
 Would you like some tea, raven?
  I am "Seeker"... or you might call me "Realm Wanderer". I've dedicated my life to acquiring all the knowledge in this world. As you can see, I am a recluse.
 It's quite remarkable that you found such a remote place.
 ...This castle is my great library, but fundamentally, a library should be a place open to all.
-All the knowledge of this world should be accessible to everyone. Feel free to make yourself at home.</t>
+All the knowledge of this world should be accessible to everyone. Feel free to make yourself at home.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">The Eternal League...? You know quite an old tale, I see.
+Ah, raven. Are you taking good care of the books you borrowed?
+Passing knowledge to future generations is the duty of those who possess it.
+Hello again, raven. You haven't seen my friend Slan, have you?
+This helmet? A beautiful beast, isn’t it? It’s an old friend of mine.
+Why do I hide my face? Since the Ten-Year War, it’s been hard for an Elea to walk freely...
+All my friends... they've all left on ahead of me.
+Apparently, there’s a madman chasing after visions of some “Mason of the Younger Dog Sister.”
+I wonder... will there be another war?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">quru</t>
@@ -2033,6 +2080,31 @@
 I want to snuggle with snow putit-chan! I really do, #brother2!
 There are snow putit-chans with different colors, #brother2. It would be so nice if we could welcome them all, #brother2.</t>
   </si>
+  <si>
+    <t xml:space="preserve">fairy_nanasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボクはナナス、ナスの妖精だよ～
+好きな物はなにかって？もちろんナスだよ～
+スペクウィングはとってもいいところだよ～みんな楽しそうに踊ってるからねぇ～
+冒険で得られるお宝ももちろん嬉しいけど、一番嬉しいのは一緒に冒険して得られた絆だよ～
+冒険の途中で出会った新しい仲間と一緒に飲んだ事もたくさんあるよぉ。とっても楽しかったねぇ～
+もちろん悲しいこともあったけど、それでもまた新しい出会いがあると信じて前に進んだからこそ今のボクがあるんだよ～
+出会いはいつかは終わるけど、その中で得たことは決して無駄ではないとおもってるよぉ～
+かつてスペクウィングを作ったと言われている青いナスの妖精…いつかは彼女を超えてみたいねぇ～
+実は幼いころに青いナスの妖精に稽古をつけてもらったことがあるんだよぉ。彼女は妖精だったけど、とっても頑丈だったよぉ～</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am Nanas, the eggplant fairy!
+What's my favorite food? Eggplant, of course!
+Specwing is a very nice place, everyone is dancing happily.
+The most gratifying part of an adventure is the bond that you get from adventuring together!
+I had a lot of drinks with new friends I met during my adventures, it was a lot of fun.
+Of course, there were some sad times, but I still moved forward believing that I would meet new people, and that's why I am here today.
+Encounters will come to an end at some point, but I believe that what I have gained from them will not be in vain.
+The blue eggplant fairy who is said to have once created Specwing, I would like to surpass her someday.
+when I was still very young, I had a blue eggplant fairy practice fighting. She was a fairy, but very sturdy.</t>
+  </si>
 </sst>
 </file>
 
@@ -2041,7 +2113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2085,6 +2157,13 @@
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2143,7 +2222,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2184,7 +2263,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2193,10 +2272,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2283,9 +2358,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2295,7 +2370,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49667400" cy="126720"/>
+          <a:ext cx="49665960" cy="125280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2433,14 +2508,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
-      <selection pane="bottomRight" activeCell="C61" activeCellId="0" sqref="C61"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="D54" activeCellId="0" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3026,7 +3101,7 @@
       <c r="C55" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3048,7 +3123,7 @@
       <c r="C57" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3059,7 +3134,7 @@
       <c r="C58" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3070,7 +3145,7 @@
       <c r="C59" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="4" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3114,12 +3189,12 @@
       <c r="C63" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -3129,8 +3204,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -3151,14 +3226,14 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="3" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3177,10 +3252,10 @@
       <c r="A69" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="1" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3199,7 +3274,7 @@
       <c r="A71" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -3217,18 +3292,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>207</v>
       </c>
@@ -3243,7 +3318,7 @@
       <c r="A75" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="3" t="s">
         <v>211</v>
       </c>
       <c r="D75" s="4" t="s">
@@ -3270,6 +3345,17 @@
       </c>
       <c r="D77" s="4" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3292,10 +3378,10 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
       <selection pane="bottomRight" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3332,213 +3418,213 @@
     </row>
     <row r="5" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="200.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3591,149 +3677,149 @@
     </row>
     <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3752,14 +3838,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3795,371 +3881,382 @@
     </row>
     <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/JP (Exclude Game)/Dialog/dialog.xlsx
+++ b/JP (Exclude Game)/Dialog/dialog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="422">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -863,11 +863,13 @@
   </si>
   <si>
     <t xml:space="preserve">市民の安全を守るのがガードの仕事{だ}。
-不審者を見たら報告して{くれ}。</t>
+不審者を見たら報告して{くれ}。
+私も昔は君のような冒険者だったの{だが}…</t>
   </si>
   <si>
     <t xml:space="preserve">It is our duty to protect citizens.
-Report to me if you see anyone suspicious.</t>
+Report to me if you see anyone suspicious.
+I used to be an adventurer like you, then...</t>
   </si>
   <si>
     <t xml:space="preserve">banker</t>
@@ -2084,15 +2086,15 @@
     <t xml:space="preserve">fairy_nanasu</t>
   </si>
   <si>
-    <t xml:space="preserve">ボクはナナス、ナスの妖精だよ～
-好きな物はなにかって？もちろんナスだよ～
-スペクウィングはとってもいいところだよ～みんな楽しそうに踊ってるからねぇ～
-冒険で得られるお宝ももちろん嬉しいけど、一番嬉しいのは一緒に冒険して得られた絆だよ～
-冒険の途中で出会った新しい仲間と一緒に飲んだ事もたくさんあるよぉ。とっても楽しかったねぇ～
-もちろん悲しいこともあったけど、それでもまた新しい出会いがあると信じて前に進んだからこそ今のボクがあるんだよ～
-出会いはいつかは終わるけど、その中で得たことは決して無駄ではないとおもってるよぉ～
-かつてスペクウィングを作ったと言われている青いナスの妖精…いつかは彼女を超えてみたいねぇ～
-実は幼いころに青いナスの妖精に稽古をつけてもらったことがあるんだよぉ。彼女は妖精だったけど、とっても頑丈だったよぉ～</t>
+    <t xml:space="preserve">ボクはナナス、ナスの妖精だよ～。
+好きな物はなにかって？もちろんナスだよ～。
+スペクウィングはとってもいいところだよ～みんな楽しそうに踊ってるからねぇ～。
+冒険で得られるお宝ももちろん嬉しいけど、一番嬉しいのは一緒に冒険して得られた絆だよ～。
+冒険の途中で出会った新しい仲間と一緒に飲んだ事もたくさんあるよぉ。とっても楽しかったねぇ～。
+もちろん悲しいこともあったけど、それでもまた新しい出会いがあると信じて前に進んだからこそ今のボクがあるんだよ～。
+出会いはいつかは終わるけど、その中で得たことは決して無駄ではないとおもってるよぉ～。
+かつてスペクウィングを作ったと言われている青いナスの妖精…いつかは彼女を超えてみたいねぇ～。
+実は幼いころに青いナスの妖精に稽古をつけてもらったことがあるんだよぉ。彼女は妖精だったけど、とっても頑丈だったよぉ～。</t>
   </si>
   <si>
     <t xml:space="preserve">I am Nanas, the eggplant fairy!
@@ -2104,6 +2106,33 @@
 Encounters will come to an end at some point, but I believe that what I have gained from them will not be in vain.
 The blue eggplant fairy who is said to have once created Specwing, I would like to surpass her someday.
 when I was still very young, I had a blue eggplant fairy practice fighting. She was a fairy, but very sturdy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪プチちゃん、かわいいですよね……フフフ……。
+ねこの自由さには憧れます。ねこの神様がいたらきっと自由そのものなんだろうなあ。
+ふつうでありたいのに、トラブルはどうしてすぐこちらを見つけるのでしょうね……*はぁ*
+不思議な話し方の冒険者さん、何故会話が出来たのか私も分かりません……。
+可愛らしいお人形の冒険者さん、ずっと誰かを探してますよね……。
+黒い翼の冒険者さん、かっこいいですよね……。
+魔法使いの冒険者さん、何やら物騒な本を持っているような……。
+運命の導きを信じる冒険者さん、何だか情熱的ですよね。
+猫を……吸う？……冒険者が居るとか……？
+ミシリアにある魔女のパン屋さん、素敵ですよね！魔女で、パン屋さん！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow Putit is just too cute... hehe.
+I wish I were as free as a cat... If there’s a cat god, they must be freedom itself.
+All I want is a normal life... So why does trouble always find me? *sigh*
+That adventurer talks so oddly... and yet, somehow we still had a conversation.
+That cute, doll-like adventurer... always searching for someone.
+That adventurer with black wings... they look really cool.
+That adventurer mage... carrying a book that feels kinda dangerous.
+That adventurer who believes in fate... so passionate, huh.
+An adventurer who... ‘inhales cats’? ...Wait, what?
+That witch’s bakery in Mysilia is so lovely... A real shop, right in the city. A witch... and a baker!</t>
   </si>
 </sst>
 </file>
@@ -2358,9 +2387,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>286560</xdr:colOff>
+      <xdr:colOff>285480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2370,7 +2399,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49665960" cy="125280"/>
+          <a:ext cx="49664880" cy="124200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2511,9 +2540,9 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
       <selection pane="bottomRight" activeCell="D54" activeCellId="0" sqref="D54"/>
     </sheetView>
@@ -3378,10 +3407,10 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
       <selection pane="bottomRight" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3515,7 +3544,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>249</v>
       </c>
@@ -3838,14 +3867,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4259,6 +4288,17 @@
         <v>418</v>
       </c>
     </row>
+    <row r="39" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/JP (Exclude Game)/Dialog/dialog.xlsx
+++ b/JP (Exclude Game)/Dialog/dialog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="434">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1382,6 +1382,60 @@
 Yes #race, you're standing in front of an exile who has lived more than 1000 years.</t>
   </si>
   <si>
+    <t xml:space="preserve">larnneire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あら、獣に変えられた王子の童話を、あなたは知っているの？
+私達はヴィンデールの森からの使者。
+公正なるジャビ王と会見し、森とエレアの民に降りかかる嫌疑を晴らすために、王都パルミアに向かっているの。
+アセリア大陸から大洋を隔たち、ティリス大陸の北に位置するのがノースティリスよ。
+あなたに風の加護のあらんことを。
+ここはどこかしら…？
+ミシリア？ ええ、知っているわ。でもミシリアは…
+人間は…怖いと思う。でも、同時に興味を惹かれるの。
+人間の抱く欲求の多くを、エレアは持たない。私たちは所有することにも、支配や戦うことにも興味がないの。それが良いことかは別としてね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, you know the fairy tale of the prince who was turned into an ugly beast?
+We are messengers from Vindale.
+Our journey ends here in North Tyris at the great city of Palmia where we're supposed to have a talk with King Xabi, a man of fairness and compassion.
+North Tyris is a continent in the western hemisphere of Ylva.
+May Wind always be with you.
+...Where have we come?
+Mysilia? Yes, I know it. But Mysilia is...
+Humans... they frighten me, yet they hold such allure.
+Most of the cravings that dwell in human hearts are absent in us Elea. We have no interest in owning, in ruling, or in fighting. But whether that is for the better is another matter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lomias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">見たところ君はノースティリスの人間ではないようだ。
+君はこの世界で何を見て、如何な足跡を残すのかな？
+おかしな場所に迷い込んでしまったぞ。
+パルミアに向かう旅の途中なんだ。
+何を言っている？ 今はシエラ暦517年だろう？
+ヴェルニースを開拓？ 君は頭でも打ったのか？
+奇遇だな。君とよく似た冒険者を介護してきたところだ。
+まったく、我々の急を要する旅が、行き倒れの冒険者のせいで遅れてしまったよ。
+…そんな物珍しげな顔をするな。君の察する通り、我々は森の民だ。君たちが「異形」と呼ぶ森の。
+森の「外」に出たエレアを、森は二度と受け入れない。もちろん、私とラーネイレは別だ。人間と関わるのは「使者」の役目だからな。
+ラーネイレはエレアの中でも特別な血筋を受け継いでいる。おっと、彼女に口酸っぱく言われる前にこの話は止めておこう！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It looks like you aren't familiar with this land.
+What will you see in this world, and what footprints will you leave behind?
+Hah, we’ve wandered into a strange place.
+We are on our way to Palmia.
+What are you talking about? It’s the year 517 of Sierra Terre. of course.
+Pioneering Vernis? Did you hit your head?
+What a coincidence. we just finished tending to an adventurer who looked a lot like you.
+Honestly, our urgent journey has been delayed all because of a collapsed adventurer.
+...Stop your curious eyes. Yes, we are kin of the Forest. The forest which you deride as "Other".
+Once an Elea leaves the Forest, the Forest shall never receive them again. Naturally, Larnneire and I stand apart, for it is the envoy’s role to treat with humans.
+Larnneire inherits a bloodline unlike any other among the Elea. But I had better say no more, lest she remind me sharply again!</t>
+  </si>
+  <si>
     <t xml:space="preserve">conery</t>
   </si>
   <si>
@@ -2097,7 +2151,7 @@
 実は幼いころに青いナスの妖精に稽古をつけてもらったことがあるんだよぉ。彼女は妖精だったけど、とっても頑丈だったよぉ～。</t>
   </si>
   <si>
-    <t xml:space="preserve">I am Nanas, the eggplant fairy!
+    <t xml:space="preserve">I am Nanasu, the eggplant fairy!
 What's my favorite food? Eggplant, of course!
 Specwing is a very nice place, everyone is dancing happily.
 The most gratifying part of an adventure is the bond that you get from adventuring together!
@@ -2106,6 +2160,60 @@
 Encounters will come to an end at some point, but I believe that what I have gained from them will not be in vain.
 The blue eggplant fairy who is said to have once created Specwing, I would like to surpass her someday.
 when I was still very young, I had a blue eggplant fairy practice fighting. She was a fairy, but very sturdy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairy_raina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アタシはライナ！迂闊に触れると痺れさせちゃうよっ！
+あら、冒険者さん。アタシに何か用？
+ポイナとの関係？まぁ～ただのいたずら仲間ってカンジ？でもなんだかんだで一緒に冒険してる長い付き合いよ。
+ナナスのことは別に嫌いじゃないのよ？ただ…ちょっといたずらして焼きナスにしたいだけ！キャハハ！
+初めてポイナとナナスとアタシの3人で冒険した時、ナナスがドジかまして死にかけたよ…アタシの機転で何とかなったけど、全く…
+鞄の時はナナスとは別行動だったけど、ナナスと一緒に冒険することもあるよ。ま、殆どデコイ役だけどね！キャハハ！
+最近だとアタシ含めてスペクウィングの妖精達が冒険に出る事が多くなったよ。ま、ライバルが増えるのは悪くはないけどねっ！
+…アタシが熱を出した時、ナナスが看病してくれた事があったよ。その時はありがとうって言えなかったけど、感謝はしてる。
+スペクウィングの創設者と言われている青いナスの妖精…？ああ、アイツね…昔アタシも稽古してもらってた、でも一回も勝てなかった！
+青いナスの妖精にはいつかリベンジしようと思ってた、でもいつの間にかどっかに行っちゃった！…勝ち逃げされた気分でくやしい！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm Raina! Touch me carelessly and I'll make you tingle!
+Oh, adventurer. You need something from me?
+My relationship with Poina? Well~ just like mischief partners, I guess? But we've been adventuring together for ages, one way or another.
+I don't dislike Nanasu, you know? I just... want to play a little prank and turn her into grilled eggplant!
+The first time Poina, Nanasu, and I went on an adventure together, Nanasu messed up and nearly died... I managed to save the day with my quick thinking, but seriously...
+During the bag scramble, I was on a separate mission from Nanasu, but I do go on adventures with her sometimes. Well, mostly she's just the decoy though!
+Lately, the fairies of Specwing have been going on more adventures. Well, having more rivals isn't so bad either!
+When I had a fever, Nanasu took care of me. I couldn't thank her at the time, but I'm grateful.
+The Blue Eggplant Fairy, said to be Specwing's founder...? Ah, her... I used to train under her too, but I never won a single match!
+I'd been planning to get revenge on Blue Eggplant Fairy someday, but before I knew it, she'd vanished! ...Feels like she got away with it, and it's so frustrating!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairy_poina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私はポイナ、余計な事言うと毒を喰らわせるからな。
+…なんだ？何か用か？
+ライナは戦いを甘く見てる時がある。冒険は遊びじゃないと何度言えば分かるんだか、バカがよ…
+ナナスは甘すぎる。アイツは絆を大事にしていると言っているが、それだけだといつか足元をすくわれるだろうな…
+ライナとは長い付き合いだが、いたずら仲間程度の認識だ。だが一緒に冒険をするのは嫌いじゃない。
+私は奇襲を仕掛ける方が好きだが、ライナがすぐに突っ込んでいくから余計な消耗をすることになる…バカがよ…
+ライナからナナスと一緒に初めて冒険をした話は聞いたか？その時ナナスは自分が皆を危険な目に合わせたことに泣いてたさ、ハハッ。
+…ナナスは昔、私が落とし物をした際に必死になって探してくれたことがある。普段こっちがいたずらしてばっかなのに…バカがよ…
+昔、ナナスやライナと共に青いナスの妖精に稽古をつけてもらったことがある。だがアイツには私の毒攻撃が殆ど効いていなかった。
+今の私とライナ、そしてナナスの3人であれば青いナスの妖精に勝てるだろうか？だがアイツはもう何処かに行って久しいからな…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm Poina. Say one wrong thing and I'll attack you with poison.
+What? You need something?
+Raina sometimes underestimates the fight. How many times do I have to tell you that adventure isn't a game, idiot...
+Nanasu is way too sweet. She says she values bonds, but if that's all she has, she'll get tripped up someday...
+I've known Raina for a long time, but I only think of her as a fellow prankster. Still, I don't mind adventuring with her.
+I prefer launching surprise attacks, but Raina always charges in headfirst, leading to unnecessary wear and tear... What an idiot...
+Did you hear about Raina's first adventure with Nanasu? Back then, Nanasu was crying because she thought she'd put everyone in danger.
+Nanasu once searched desperately for something I lost. Even though I'm always the one pulling pranks... idiot...
+Long ago, I trained with Nanasu and Raina under the blue eggplant fairy. But my poison attacks barely affected her.
+Can Raina, Nanasu, and I defeat the blue eggplant fairy? But she's been traveling somewhere for a long time now...</t>
   </si>
   <si>
     <t xml:space="preserve">girl_blue</t>
@@ -2251,7 +2359,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2288,6 +2396,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2301,6 +2413,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2387,9 +2503,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>285480</xdr:colOff>
+      <xdr:colOff>284760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2399,7 +2515,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49664880" cy="124200"/>
+          <a:ext cx="49664160" cy="123480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3867,14 +3983,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="C37" activeCellId="0" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3908,18 +4024,18 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>321</v>
       </c>
@@ -3930,7 +4046,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>324</v>
       </c>
@@ -3941,7 +4057,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>327</v>
       </c>
@@ -3952,7 +4068,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>330</v>
       </c>
@@ -3963,7 +4079,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>333</v>
       </c>
@@ -3974,7 +4090,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>336</v>
       </c>
@@ -3985,11 +4101,10 @@
         <v>338</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>340</v>
       </c>
@@ -3997,21 +4112,22 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>342</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>345</v>
       </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>346</v>
       </c>
@@ -4019,18 +4135,18 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>351</v>
       </c>
@@ -4052,7 +4168,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>357</v>
       </c>
@@ -4074,7 +4190,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>363</v>
       </c>
@@ -4085,18 +4201,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>369</v>
       </c>
@@ -4107,18 +4223,18 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="10" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>375</v>
       </c>
@@ -4129,71 +4245,69 @@
         <v>377</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+    <row r="29" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="13" t="s">
         <v>390</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B30" s="8"/>
       <c r="C30" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>394</v>
       </c>
     </row>
@@ -4209,19 +4323,19 @@
         <v>397</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>398</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="3" t="s">
         <v>399</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>401</v>
       </c>
@@ -4233,21 +4347,23 @@
         <v>403</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+    <row r="34" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
         <v>405</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+    <row r="35" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
         <v>407</v>
       </c>
+      <c r="B35" s="8"/>
       <c r="C35" s="3" t="s">
         <v>408</v>
       </c>
@@ -4256,7 +4372,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="1" t="s">
         <v>410</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -4266,8 +4382,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+    <row r="37" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -4278,7 +4394,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>416</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -4288,8 +4404,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+    <row r="39" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="11" t="s">
         <v>419</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -4297,6 +4413,50 @@
       </c>
       <c r="D39" s="3" t="s">
         <v>421</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/JP (Exclude Game)/Dialog/dialog.xlsx
+++ b/JP (Exclude Game)/Dialog/dialog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="446">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1380,6 +1380,70 @@
 Our great father oversees our penance, and there is no escape from our fates.
 As time passes, we grow less concerned with our material conditions...
 Yes #race, you're standing in front of an exile who has lived more than 1000 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namamani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なんだこの場所は？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is this place?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namamani2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おかしい、何も思い出せない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strange... I can't remember anything.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keeper_garden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タネローン？ ああ、誰かが庭をそう呼ぶのを聞いたことがあるな。
+なんじゃ、ぬしもわっちに可愛がられたい口か？ 
+時などここでは何の意味も持たぬのじゃ。
+ほう、旅人か、迷子か、それとも、 ここがどこかも知らずに歩いてきた愚か者か。
+好きに歩け。どこへ行っても、同じ景色じゃ。 
+フホホホ、わっちに挨拶とは律儀なやつじゃ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanelorn? Ah, I’ve heard someone call this place by that name before.
+What is it? Do you wish to be doted on by me as well?
+Time holds no meaning here.
+Oh? A traveler, a lost one, or perhaps just a fool wandering without knowing where you’ve come?
+Walk wherever you please. Every path leads to the same view.
+Muwohoho... how courteous of you to greet me, mortal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erishe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふふ、兄さん、どこにいったの？
+こんにちは、旅の人。ゆっくりしていってください。
+とても平和な場所です。ここにいると、まるで時間を忘れてしまうようで…
+お芝居を見に行く途中で、兄さんとはぐれてしまって。何が起こったのでしょう？
+兄さんも私も、お芝居にはあまり興味はないんです。でも、ザナンでは貴族のたしなみですから。
+知っていましたか…？ アルティハイトには妖精がいるんですよ？
+ああ見えても、兄さんは私がいないとだらしないんですよ、ふふ。
+ロイターさんは、演奏会場で石を投げて、出入り禁止になったことがあるようですね。
+差し入れを持っていくと、ロイターさんったら、いまだに少年みたいに照れるんですよ。
+ロイテル…？ いえ、ロイターさんなら知ってますけど…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hehe, brother, where did you go?
+Hello, traveler. Please, take your time and rest here.
+This is such a peaceful place. Being here almost makes you forget about time itself...
+I got separated from my brother on the way to the play. I wonder what happened?
+Neither of us is really interested in theater, but in Zanan, it’s considered part of a noble’s education.
+Did you know? …There are fairies in Altheheit, you know.
+Even though he doesn’t look it, my brother is hopeless without me, hehe.
+Loyter once threw a stone at a concert hall and got himself banned from entering.
+Whenever I bring Loyter a little gift, he still blushes like a boy.
+Loytel...? I don’t think so, though I do know Loyter.</t>
   </si>
   <si>
     <t xml:space="preserve">larnneire</t>
@@ -2291,6 +2355,13 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="0"/>
@@ -2301,13 +2372,6 @@
       <color rgb="FF000000"/>
       <name val="MS UI Gothic"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -2359,7 +2423,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2396,27 +2460,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2503,9 +2559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>284760</xdr:colOff>
+      <xdr:colOff>283680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2515,7 +2571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49664160" cy="123480"/>
+          <a:ext cx="49663080" cy="122400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3983,14 +4039,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="D40" activeCellId="0" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4024,30 +4080,30 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>321</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>324</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -4057,7 +4113,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>327</v>
       </c>
@@ -4068,7 +4124,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>330</v>
       </c>
@@ -4079,7 +4135,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>333</v>
       </c>
@@ -4112,7 +4168,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>342</v>
       </c>
@@ -4123,11 +4179,10 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>346</v>
       </c>
@@ -4135,18 +4190,18 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>351</v>
       </c>
@@ -4157,7 +4212,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>354</v>
       </c>
@@ -4168,10 +4223,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>357</v>
       </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>358</v>
       </c>
@@ -4179,18 +4235,18 @@
         <v>359</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>360</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>363</v>
       </c>
@@ -4212,7 +4268,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>369</v>
       </c>
@@ -4223,18 +4279,18 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>375</v>
       </c>
@@ -4245,18 +4301,18 @@
         <v>377</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>381</v>
       </c>
@@ -4267,99 +4323,95 @@
         <v>383</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
+    <row r="27" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>384</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+    <row r="33" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="12" t="s">
         <v>402</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>407</v>
       </c>
@@ -4371,10 +4423,11 @@
         <v>409</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+    <row r="36" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
         <v>410</v>
       </c>
+      <c r="B36" s="8"/>
       <c r="C36" s="3" t="s">
         <v>411</v>
       </c>
@@ -4382,10 +4435,11 @@
         <v>412</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+    <row r="37" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
         <v>413</v>
       </c>
+      <c r="B37" s="8"/>
       <c r="C37" s="3" t="s">
         <v>414</v>
       </c>
@@ -4393,21 +4447,23 @@
         <v>415</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
+    <row r="38" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
         <v>417</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
+    <row r="39" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>419</v>
       </c>
+      <c r="B39" s="8"/>
       <c r="C39" s="3" t="s">
         <v>420</v>
       </c>
@@ -4416,29 +4472,29 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="1" t="s">
         <v>422</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
+    <row r="41" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>425</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
+    <row r="42" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
         <v>428</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -4448,8 +4504,8 @@
         <v>430</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
+    <row r="43" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
         <v>431</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -4457,6 +4513,50 @@
       </c>
       <c r="D43" s="3" t="s">
         <v>433</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/JP (Exclude Game)/Dialog/dialog.xlsx
+++ b/JP (Exclude Game)/Dialog/dialog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="458">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -274,6 +274,33 @@
     <t xml:space="preserve">Okay sweetie, I need #1 Orens in front.</t>
   </si>
   <si>
+    <t xml:space="preserve">blooming1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ほう、ぬしの仲間はよく熟れておるな？ 長い旅で育まれた絆が、今まさに花開こうとしておるぞ。わっちが手助けしてやらぬこともないが…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmph, your companion seems well ripened indeed. The bond you’ve nurtured through your travels is ready to blossom. Perhaps I shall help it along...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blooming2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フホホホホホホ、咲けぃ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muwohohohohohoho, BLOOM!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blooming3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フホホ、 ぬしの誠意次第じゃな。 わっちを喜ばせてみせるがよい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muwohoho. Your sincerity shall decide my favor. Delight me, if you dare.</t>
+  </si>
+  <si>
     <t xml:space="preserve">tail1</t>
   </si>
   <si>
@@ -323,6 +350,15 @@
   </si>
   <si>
     <t xml:space="preserve">If you were just a little more charming, perhaps.#newline(#1 charisma required)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inviteReq1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1を持ってきて{くれ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you give me #1?</t>
   </si>
   <si>
     <t xml:space="preserve">talk_hobby</t>
@@ -1385,10 +1421,32 @@
     <t xml:space="preserve">namamani</t>
   </si>
   <si>
-    <t xml:space="preserve">なんだこの場所は？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is this place?</t>
+    <t xml:space="preserve">なんだこの場所は？
+神々なんて、ただ人間より少し強くて傲慢なだけじゃないか。
+人間の行動は、常に感情の誤作動に導かれる。
+機械が壊れるのは設計の責任だろう？
+機械はやがて人間の代わりに地上を支配するだろう。
+自分が作ったモノは全て覚えている。例外などない。
+…神などという不合理な存在を認めるものか。
+なぜ、ここには私が二人いる？
+退屈な場所だ。ただ一点、私が二人いることをのぞけばな…
+…ああ、この腕か？ もちろん自分で取り替えたぞ。
+私が神々の座を狙っている…？ ふん、面白い冗談だ。お前の頭を分解してみたいよ。
+…やけに猫が多いな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is this place?
+Gods? They're just a little stronger and more arrogant than humans.
+Human behavior is always guided by the malfunction of emotion.
+When a machine breaks down, it’s the fault of its design, isn’t it?
+One day, machines will rule the earth in place of humankind.
+I remember everything I’ve created—without exception. 
+I refuse to acknowledge something as irrational as a god.
+Why are there two of me here?
+What a dull place. Except, of course, for the fact that there are two of me.
+...This arm? Of course I replaced it myself.
+You think I’m after the gods’ throne? Heh, what a funny thought. I’d much rather take your head apart and see how it works.
+...Why are there so many cats here?</t>
   </si>
   <si>
     <t xml:space="preserve">namamani2</t>
@@ -1405,18 +1463,30 @@
   <si>
     <t xml:space="preserve">タネローン？ ああ、誰かが庭をそう呼ぶのを聞いたことがあるな。
 なんじゃ、ぬしもわっちに可愛がられたい口か？ 
-時などここでは何の意味も持たぬのじゃ。
-ほう、旅人か、迷子か、それとも、 ここがどこかも知らずに歩いてきた愚か者か。
-好きに歩け。どこへ行っても、同じ景色じゃ。 
-フホホホ、わっちに挨拶とは律儀なやつじゃ。</t>
+時はここでは何の意味も持たぬ。
+ほう、旅人か？ 迷子か？ それとも、 ここがどこかも知らずに歩いてきた愚か者か？
+フホホホ、わっちに挨拶とは律儀なやつじゃ。
+猫は、この世でいちばん尊いのう。
+やがて客はこの庭を忘れ、元いた場所へ、元いた時へと還っていくのじゃ。 
+この庭では、すべての魂が平穏を知るのじゃ。
+庭に招かれた者は皆、永遠の安らぎの欠片を胸に抱き、去っていく。
+フホホ、ぬしにも見えるか？ 水面を漂う花びらのように、時の触れぬ静寂に浮かぶ無数の魂が。
+その静寂の中で眠ったすべての魂を、庭は今も覚えておる。 
+いつか、幸運の女神を思う存分モフりたいものじゃ。</t>
   </si>
   <si>
     <t xml:space="preserve">Tanelorn? Ah, I’ve heard someone call this place by that name before.
 What is it? Do you wish to be doted on by me as well?
 Time holds no meaning here.
 Oh? A traveler, a lost one, or perhaps just a fool wandering without knowing where you’ve come?
-Walk wherever you please. Every path leads to the same view.
-Muwohoho... how courteous of you to greet me, mortal.</t>
+Muwohoho... how courteous of you to greet me, mortal.
+Cats truly are the greatest, aren’t they?
+In the end, every guest leaves—forgetting this garden, and returning to where, and when, they once belonged.
+Here in this garden, all souls come to know peace.
+All who wander here leave with a fragment of its eternal calm.
+Here, hearts drift like petals upon still water, untouched by time.
+This garden remembers every soul that has ever found rest within its silence.
+Someday, I shall fluff the Goddess of Fortune to my heart’s content.</t>
   </si>
   <si>
     <t xml:space="preserve">erishe</t>
@@ -2444,6 +2514,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2454,10 +2528,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2559,9 +2629,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>283680</xdr:colOff>
+      <xdr:colOff>281880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2571,7 +2641,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49663080" cy="122400"/>
+          <a:ext cx="49661280" cy="120600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2709,14 +2779,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
-      <selection pane="bottomRight" activeCell="D54" activeCellId="0" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3031,70 +3101,70 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3112,7 +3182,7 @@
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3123,7 +3193,7 @@
       <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3134,7 +3204,7 @@
       <c r="A40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -3145,7 +3215,7 @@
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -3192,11 +3262,11 @@
       <c r="C45" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
@@ -3236,11 +3306,11 @@
       <c r="C49" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>135</v>
       </c>
@@ -3251,7 +3321,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>138</v>
       </c>
@@ -3262,7 +3332,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>141</v>
       </c>
@@ -3284,7 +3354,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>147</v>
       </c>
@@ -3295,18 +3365,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>153</v>
       </c>
@@ -3335,7 +3405,7 @@
       <c r="C58" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3379,7 +3449,7 @@
       <c r="C62" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3390,7 +3460,7 @@
       <c r="C63" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="4" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3401,40 +3471,40 @@
       <c r="C64" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="1" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3442,43 +3512,43 @@
       <c r="A68" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3489,7 +3559,7 @@
       <c r="C72" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3500,11 +3570,11 @@
       <c r="C73" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>207</v>
       </c>
@@ -3548,15 +3618,59 @@
         <v>218</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="3" t="s">
         <v>220</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3579,253 +3693,253 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="117.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="122.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="117.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="122.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="7"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="7"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>224</v>
+      <c r="A5" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>227</v>
+      <c r="A6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>230</v>
+      <c r="A7" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>233</v>
+      <c r="A8" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>236</v>
+      <c r="A9" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>239</v>
+      <c r="A10" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>242</v>
+      <c r="A11" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>245</v>
+      <c r="A12" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>248</v>
+      <c r="A13" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>251</v>
+      <c r="A14" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>254</v>
+      <c r="A15" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>257</v>
+      <c r="A16" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>260</v>
+      <c r="A17" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>263</v>
+      <c r="A18" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="200.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>266</v>
+      <c r="A19" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>269</v>
+      <c r="A20" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>272</v>
+      <c r="A21" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>275</v>
+      <c r="A22" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>278</v>
+      <c r="A23" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3847,10 +3961,10 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -3878,149 +3992,149 @@
     </row>
     <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B14" s="8"/>
+        <v>318</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="3" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="8"/>
+        <v>321</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B16" s="8"/>
+        <v>324</v>
+      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" s="8"/>
+        <v>327</v>
+      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="3" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4041,12 +4155,12 @@
   </sheetPr>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4080,483 +4194,483 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>320</v>
+        <v>331</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B35" s="8"/>
+        <v>419</v>
+      </c>
+      <c r="B35" s="5"/>
       <c r="C35" s="3" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B36" s="8"/>
+        <v>422</v>
+      </c>
+      <c r="B36" s="5"/>
       <c r="C36" s="3" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B37" s="8"/>
+        <v>425</v>
+      </c>
+      <c r="B37" s="5"/>
       <c r="C37" s="3" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8" t="s">
-        <v>417</v>
+        <v>428</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B39" s="8"/>
+        <v>431</v>
+      </c>
+      <c r="B39" s="5"/>
       <c r="C39" s="3" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
